--- a/09-Excell/Szenarien Bev.wachstum - j. Zuwachs konstant.xlsx
+++ b/09-Excell/Szenarien Bev.wachstum - j. Zuwachs konstant.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrano Golliez\Desktop\ETH\6. Semester\Bachelorarbeit Word\Excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrano Golliez\Desktop\ETH\6. Semester\Bachelorarbeit\09-Excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Szenario 1" sheetId="6" r:id="rId1"/>
     <sheet name="Szenario 2" sheetId="5" r:id="rId2"/>
     <sheet name="Szenario 3" sheetId="4" r:id="rId3"/>
+    <sheet name="W'rate" sheetId="7" r:id="rId4"/>
+    <sheet name="DTV_i" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -97,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -254,12 +256,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -298,6 +309,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -850,11 +864,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="190826960"/>
-        <c:axId val="190827352"/>
+        <c:axId val="635168472"/>
+        <c:axId val="635164552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190826960"/>
+        <c:axId val="635168472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,7 +911,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190827352"/>
+        <c:crossAx val="635164552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -905,7 +919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190827352"/>
+        <c:axId val="635164552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +970,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190826960"/>
+        <c:crossAx val="635168472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -970,7 +984,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1547,11 +1560,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="190825784"/>
-        <c:axId val="190824216"/>
+        <c:axId val="635169256"/>
+        <c:axId val="635166512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190825784"/>
+        <c:axId val="635169256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1594,7 +1607,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190824216"/>
+        <c:crossAx val="635166512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1602,7 +1615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190824216"/>
+        <c:axId val="635166512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,7 +1666,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190825784"/>
+        <c:crossAx val="635169256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1667,7 +1680,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2244,11 +2256,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="190826568"/>
-        <c:axId val="190823824"/>
+        <c:axId val="635162592"/>
+        <c:axId val="635173568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190826568"/>
+        <c:axId val="635162592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2291,7 +2303,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190823824"/>
+        <c:crossAx val="635173568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2299,7 +2311,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190823824"/>
+        <c:axId val="635173568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,7 +2362,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190826568"/>
+        <c:crossAx val="635162592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2364,6 +2376,605 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>Wachstumsraten</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'W''rate'!$B$3:$B$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('W''rate'!$B$3,'W''rate'!$B$8,'W''rate'!$B$13,'W''rate'!$B$18,'W''rate'!$B$23,'W''rate'!$B$28,'W''rate'!$B$33,'W''rate'!$B$38,'W''rate'!$B$43,'W''rate'!$B$48)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'W''rate'!$C$3:$C$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('W''rate'!$C$3,'W''rate'!$C$8,'W''rate'!$C$13,'W''rate'!$C$18,'W''rate'!$C$23,'W''rate'!$C$28,'W''rate'!$C$33,'W''rate'!$C$38,'W''rate'!$C$43,'W''rate'!$C$48)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5171428571428572E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4101712919930951E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3172909947903747E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2358896776445945E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1639631740464708E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0999482133609529E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0426075004908698E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9094895959690212E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4416785206258898E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0160455047117744E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'W''rate'!$B$3:$B$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('W''rate'!$B$3,'W''rate'!$B$8,'W''rate'!$B$13,'W''rate'!$B$18,'W''rate'!$B$23,'W''rate'!$B$28,'W''rate'!$B$33,'W''rate'!$B$38,'W''rate'!$B$43,'W''rate'!$B$48)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'W''rate'!$D$3:$D$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('W''rate'!$D$3,'W''rate'!$D$8,'W''rate'!$D$13,'W''rate'!$D$18,'W''rate'!$D$23,'W''rate'!$D$28,'W''rate'!$D$33,'W''rate'!$D$38,'W''rate'!$D$43,'W''rate'!$D$48)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0371428571428571E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8601113676490566E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3968418327724564E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9751514402274697E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.589682915286322E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.235961429381735E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9102200915232082E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6092652761765014E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3303715670436191E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0711989870458755E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'W''rate'!$B$3:$B$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('W''rate'!$B$3,'W''rate'!$B$8,'W''rate'!$B$13,'W''rate'!$B$18,'W''rate'!$B$23,'W''rate'!$B$28,'W''rate'!$B$33,'W''rate'!$B$38,'W''rate'!$B$43,'W''rate'!$B$48)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'W''rate'!$E$3:$E$48</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('W''rate'!$E$3,'W''rate'!$E$8,'W''rate'!$E$13,'W''rate'!$E$18,'W''rate'!$E$23,'W''rate'!$E$28,'W''rate'!$E$33,'W''rate'!$E$38,'W''rate'!$E$43,'W''rate'!$E$48)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.3714285714285713E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.230940456316082E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0976138828633406E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9709148598625066E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8503611971104227E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7355163727959698E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6259842519685039E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5214045214045217E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4214487300094077E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3258168430740911E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="635166904"/>
+        <c:axId val="635173960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="635166904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635173960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="635173960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2.5000000000000005E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635166904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2428,6 +3039,1153 @@
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10786334808036362"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.67286684499049687"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Trend Prosperität</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>DTV_i!$B$2:$B$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(DTV_i!$B$2,DTV_i!$B$7,DTV_i!$B$12,DTV_i!$B$17,DTV_i!$B$22,DTV_i!$B$27,DTV_i!$B$32,DTV_i!$B$37,DTV_i!$B$42,DTV_i!$B$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>DTV_i!$C$2:$C$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(DTV_i!$C$2,DTV_i!$C$7,DTV_i!$C$12,DTV_i!$C$17,DTV_i!$C$22,DTV_i!$C$27,DTV_i!$C$32,DTV_i!$C$37,DTV_i!$C$42,DTV_i!$C$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>11843.319917818244</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="0">
+                  <c:v>12741.720328727028</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>13640.120739635813</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>14538.521150544595</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>15436.921561453377</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>16335.321972362161</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>17233.722383270942</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>18132.12279417973</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>19030.52320508851</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>19928.923615997293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Trend restriktiv</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>DTV_i!$B$2:$B$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(DTV_i!$B$2,DTV_i!$B$7,DTV_i!$B$12,DTV_i!$B$17,DTV_i!$B$22,DTV_i!$B$27,DTV_i!$B$32,DTV_i!$B$37,DTV_i!$B$42,DTV_i!$B$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>DTV_i!$D$2:$D$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(DTV_i!$D$2,DTV_i!$D$7,DTV_i!$D$12,DTV_i!$D$17,DTV_i!$D$22,DTV_i!$D$27,DTV_i!$D$32,DTV_i!$D$37,DTV_i!$D$42,DTV_i!$D$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>11899.584311285807</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="0">
+                  <c:v>12516.662754856772</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>13133.741198427733</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>13750.819641998702</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>14367.898085569666</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>14984.976529140627</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>15602.054972711589</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>16219.133416282555</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>16836.211859853523</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>17453.290303424488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Stagnation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>DTV_i!$B$2:$B$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(DTV_i!$B$2,DTV_i!$B$7,DTV_i!$B$12,DTV_i!$B$17,DTV_i!$B$22,DTV_i!$B$27,DTV_i!$B$32,DTV_i!$B$37,DTV_i!$B$42,DTV_i!$B$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>DTV_i!$E$2:$E$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(DTV_i!$E$2,DTV_i!$E$7,DTV_i!$E$12,DTV_i!$E$17,DTV_i!$E$22,DTV_i!$E$27,DTV_i!$E$32,DTV_i!$E$37,DTV_i!$E$42,DTV_i!$E$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>11958.76435148346</c:v>
+                </c:pt>
+                <c:pt idx="1" formatCode="0">
+                  <c:v>12279.942594066157</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>12601.120836648852</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>12922.299079231549</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>13243.477321814247</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>13564.655564396946</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>13885.833806979641</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>14207.012049562343</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>14528.19029214504</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>14849.368534727735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="635167296"/>
+        <c:axId val="635170040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="635167296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635170040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="635170040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="22500"/>
+          <c:min val="11000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635167296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74838447397706165"/>
+          <c:y val="0.1420709390492855"/>
+          <c:w val="0.24498553172445292"/>
+          <c:h val="0.56770997375328081"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:alpha val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10786334808036362"/>
+          <c:y val="0.17129629629629628"/>
+          <c:w val="0.67286684499049687"/>
+          <c:h val="0.72130431612715074"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Trend Prosperität</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>DTV_i!$B$2:$B$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(DTV_i!$B$2,DTV_i!$B$7,DTV_i!$B$12,DTV_i!$B$17,DTV_i!$B$22,DTV_i!$B$27,DTV_i!$B$32,DTV_i!$B$37,DTV_i!$B$42,DTV_i!$B$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>DTV_i!$H$2:$H$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(DTV_i!$H$2,DTV_i!$H$7,DTV_i!$H$12,DTV_i!$H$17,DTV_i!$H$22,DTV_i!$H$27,DTV_i!$H$32,DTV_i!$H$37,DTV_i!$H$42,DTV_i!$H$47)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1226.2573442909008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1319.2777228363964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1412.2981013818919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1505.3184799273872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1598.3388584728825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1691.3592370183781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1784.3796155638734</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1877.3999941093691</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1970.4203726548642</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2063.4407512003595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tren restriktiv</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>DTV_i!$B$2:$B$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(DTV_i!$B$2,DTV_i!$B$7,DTV_i!$B$12,DTV_i!$B$17,DTV_i!$B$22,DTV_i!$B$27,DTV_i!$B$32,DTV_i!$B$37,DTV_i!$B$42,DTV_i!$B$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>DTV_i!$I$2:$I$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(DTV_i!$I$2,DTV_i!$I$7,DTV_i!$I$12,DTV_i!$I$17,DTV_i!$I$22,DTV_i!$I$27,DTV_i!$I$32,DTV_i!$I$37,DTV_i!$I$42,DTV_i!$I$47)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1232.0829595905325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1295.9752616378701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1359.8675636852074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1423.7598657325454</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1487.6521677798833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1551.5444698272204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1615.4367718745577</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1679.3290739218955</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1743.2213759692338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1807.1136780165714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Stagnation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>DTV_i!$B$2:$B$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(DTV_i!$B$2,DTV_i!$B$7,DTV_i!$B$12,DTV_i!$B$17,DTV_i!$B$22,DTV_i!$B$27,DTV_i!$B$32,DTV_i!$B$37,DTV_i!$B$42,DTV_i!$B$47)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2060</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>DTV_i!$J$2:$J$47</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(DTV_i!$J$2,DTV_i!$J$7,DTV_i!$J$12,DTV_i!$J$17,DTV_i!$J$22,DTV_i!$J$27,DTV_i!$J$32,DTV_i!$J$37,DTV_i!$J$42,DTV_i!$J$47)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1238.2104609525973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1271.4652561896098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1304.7200514266219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1337.9748466636345</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1371.229641900647</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1404.4844371376596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1437.7392323746719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1470.9940276116849</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1504.2488228486973</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1537.5036180857096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="635167688"/>
+        <c:axId val="635168080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="635167688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635168080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="635168080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2100"/>
+          <c:min val="1100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635167688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="200"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74838457089965393"/>
+          <c:y val="0.10503390201224846"/>
+          <c:w val="0.24498553172445292"/>
+          <c:h val="0.56770997375328081"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:alpha val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2518,6 +4276,117 @@
   <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -4099,6 +5968,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -14341,6 +17758,768 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396244</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>670556</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.4462</cdr:x>
+      <cdr:y>0.04074</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.55333</cdr:x>
+      <cdr:y>0.10352</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="Textfeld 7"/>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="2040026" y="111760"/>
+              <a:ext cx="489814" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-CH" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷𝑇𝑉</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑀𝐼𝑉</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="Textfeld 7"/>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="2040026" y="111760"/>
+              <a:ext cx="489814" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐷𝑇𝑉〗_𝑀𝐼𝑉</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.4462</cdr:x>
+      <cdr:y>0.04074</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.54796</cdr:x>
+      <cdr:y>0.10352</cdr:y>
+    </cdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="Textfeld 7"/>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="2240627" y="111758"/>
+              <a:ext cx="510974" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-CH" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷𝑇𝑉</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-CH" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑉𝑒𝑙𝑜</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <cdr:sp macro="" textlink="">
+          <cdr:nvSpPr>
+            <cdr:cNvPr id="3" name="Textfeld 7"/>
+            <cdr:cNvSpPr txBox="1"/>
+          </cdr:nvSpPr>
+          <cdr:spPr>
+            <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:off x="2240627" y="111758"/>
+              <a:ext cx="510974" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          </cdr:spPr>
+          <cdr:style>
+            <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </cdr:style>
+          <cdr:txBody>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:lvl1pPr marL="0" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" indent="0">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-CH" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐷𝑇𝑉〗_𝑉𝑒𝑙𝑜</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-CH" sz="1100"/>
+            </a:p>
+          </cdr:txBody>
+        </cdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14608,8 +18787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="B16" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14630,56 +18809,56 @@
     <row r="2" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:12" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="11"/>
@@ -16134,8 +20313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView topLeftCell="B28" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16156,56 +20335,56 @@
     <row r="2" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:12" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:12" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="11"/>
@@ -17660,8 +21839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="B10" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17682,56 +21861,56 @@
     <row r="2" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:12" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="11"/>
@@ -19180,4 +23359,2064 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>2015</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1.5171428571428572E-2</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1.0371428571428571E-2</v>
+      </c>
+      <c r="E3" s="16">
+        <v>5.3714285714285713E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <f>B3+1</f>
+        <v>2016</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1.4944696180799865E-2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1.0264966207618131E-2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>5.3427304762987378E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:B21" si="0">B4+1</f>
+        <v>2017</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1.4724640896234263E-2</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1.0160667301125231E-2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>5.3143374038896428E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1.4510972043833521E-2</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1.0058466568760565E-2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>5.28624451692723E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1.4303415580217648E-2</v>
+      </c>
+      <c r="D7" s="16">
+        <v>9.9583013277735107E-3</v>
+      </c>
+      <c r="E7" s="16">
+        <v>5.2584470798836425E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1.4101712919930951E-2</v>
+      </c>
+      <c r="D8" s="16">
+        <v>9.8601113676490566E-3</v>
+      </c>
+      <c r="E8" s="16">
+        <v>5.230940456316082E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="C9" s="16">
+        <v>1.3905619860681926E-2</v>
+      </c>
+      <c r="D9" s="16">
+        <v>9.7638388294152452E-3</v>
+      </c>
+      <c r="E9" s="16">
+        <v>5.2037201062887515E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1.3714905597024563E-2</v>
+      </c>
+      <c r="D10" s="16">
+        <v>9.6694280919527986E-3</v>
+      </c>
+      <c r="E10" s="16">
+        <v>5.1767815838748765E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1.3529351814105178E-2</v>
+      </c>
+      <c r="D11" s="16">
+        <v>9.5768256648374843E-3</v>
+      </c>
+      <c r="E11" s="16">
+        <v>5.150120534735919E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="C12" s="16">
+        <v>1.3348751853993313E-2</v>
+      </c>
+      <c r="D12" s="16">
+        <v>9.48598008728147E-3</v>
+      </c>
+      <c r="E12" s="16">
+        <v>5.1237326937752098E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1.3172909947903747E-2</v>
+      </c>
+      <c r="D13" s="16">
+        <v>9.3968418327724564E-3</v>
+      </c>
+      <c r="E13" s="16">
+        <v>5.0976138828633406E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1.3001640508312725E-2</v>
+      </c>
+      <c r="D14" s="16">
+        <v>9.3093632190393155E-3</v>
+      </c>
+      <c r="E14" s="16">
+        <v>5.0717600086327827E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1.2834767475587355E-2</v>
+      </c>
+      <c r="D15" s="16">
+        <v>9.2234983230003054E-3</v>
+      </c>
+      <c r="E15" s="16">
+        <v>5.0461670603392742E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="C16" s="16">
+        <v>1.2672123714292534E-2</v>
+      </c>
+      <c r="D16" s="16">
+        <v>9.1392029003751346E-3</v>
+      </c>
+      <c r="E16" s="16">
+        <v>5.0208311077876294E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1.2513550454823961E-2</v>
+      </c>
+      <c r="D17" s="16">
+        <v>9.0564343096651862E-3</v>
+      </c>
+      <c r="E17" s="16">
+        <v>4.9957482993197282E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="C18" s="16">
+        <v>1.2358896776445945E-2</v>
+      </c>
+      <c r="D18" s="16">
+        <v>8.9751514402274697E-3</v>
+      </c>
+      <c r="E18" s="16">
+        <v>4.9709148598625066E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="C19" s="16">
+        <v>1.2208019128195696E-2</v>
+      </c>
+      <c r="D19" s="16">
+        <v>8.8953146441874149E-3</v>
+      </c>
+      <c r="E19" s="16">
+        <v>4.9463270890338874E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1.2060780884457264E-2</v>
+      </c>
+      <c r="D20" s="16">
+        <v>8.8168856719535588E-3</v>
+      </c>
+      <c r="E20" s="16">
+        <v>4.9219813593046396E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="C21" s="16">
+        <v>1.191705193231294E-2</v>
+      </c>
+      <c r="D21" s="16">
+        <v>8.7398276111137867E-3</v>
+      </c>
+      <c r="E21" s="16">
+        <v>4.8978741142142561E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <f>B21+1</f>
+        <v>2034</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1.1776708288052518E-2</v>
+      </c>
+      <c r="D22" s="16">
+        <v>8.6641048285080076E-3</v>
+      </c>
+      <c r="E22" s="16">
+        <v>4.8740018666390125E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <f>B22+1</f>
+        <v>2035</v>
+      </c>
+      <c r="C23" s="16">
+        <v>1.1639631740464708E-2</v>
+      </c>
+      <c r="D23" s="16">
+        <v>8.589682915286322E-3</v>
+      </c>
+      <c r="E23" s="16">
+        <v>4.8503611971104227E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <f t="shared" ref="B24:B28" si="1">B23+1</f>
+        <v>2036</v>
+      </c>
+      <c r="C24" s="16">
+        <v>1.1505709518753656E-2</v>
+      </c>
+      <c r="D24" s="16">
+        <v>8.5165286347746519E-3</v>
+      </c>
+      <c r="E24" s="16">
+        <v>4.8269487521823973E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>2037</v>
+      </c>
+      <c r="C25" s="16">
+        <v>1.1374833983119831E-2</v>
+      </c>
+      <c r="D25" s="16">
+        <v>8.4446098729819008E-3</v>
+      </c>
+      <c r="E25" s="16">
+        <v>4.8037612428454618E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <f t="shared" si="1"/>
+        <v>2038</v>
+      </c>
+      <c r="C26" s="16">
+        <v>1.1246902336220957E-2</v>
+      </c>
+      <c r="D26" s="16">
+        <v>8.3738955915938079E-3</v>
+      </c>
+      <c r="E26" s="16">
+        <v>4.7807954429864713E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <f t="shared" si="1"/>
+        <v>2039</v>
+      </c>
+      <c r="C27" s="16">
+        <v>1.11218163538874E-2</v>
+      </c>
+      <c r="D27" s="16">
+        <v>8.304355783308931E-3</v>
+      </c>
+      <c r="E27" s="16">
+        <v>4.7580481878922859E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <f t="shared" si="1"/>
+        <v>2040</v>
+      </c>
+      <c r="C28" s="16">
+        <v>1.0999482133609529E-2</v>
+      </c>
+      <c r="D28" s="16">
+        <v>8.235961429381735E-3</v>
+      </c>
+      <c r="E28" s="16">
+        <v>4.7355163727959698E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <f>B28+1</f>
+        <v>2041</v>
+      </c>
+      <c r="C29" s="16">
+        <v>1.0879809859443512E-2</v>
+      </c>
+      <c r="D29" s="16">
+        <v>8.1686844592465911E-3</v>
+      </c>
+      <c r="E29" s="16">
+        <v>4.7131969514640996E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <f t="shared" ref="B30:B33" si="2">B29+1</f>
+        <v>2042</v>
+      </c>
+      <c r="C30" s="16">
+        <v>1.0762713582098628E-2</v>
+      </c>
+      <c r="D30" s="16">
+        <v>8.1024977121046411E-3</v>
+      </c>
+      <c r="E30" s="16">
+        <v>4.6910869348238344E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <f t="shared" si="2"/>
+        <v>2043</v>
+      </c>
+      <c r="C31" s="16">
+        <v>1.0648111013074517E-2</v>
+      </c>
+      <c r="D31" s="16">
+        <v>8.0373749003631208E-3</v>
+      </c>
+      <c r="E31" s="16">
+        <v>4.6691833896284523E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <f t="shared" si="2"/>
+        <v>2044</v>
+      </c>
+      <c r="C32" s="16">
+        <v>1.0535923331812139E-2</v>
+      </c>
+      <c r="D32" s="16">
+        <v>7.9732905748237312E-3</v>
+      </c>
+      <c r="E32" s="16">
+        <v>4.6474834371600911E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <f t="shared" si="2"/>
+        <v>2045</v>
+      </c>
+      <c r="C33" s="16">
+        <v>1.0426075004908698E-2</v>
+      </c>
+      <c r="D33" s="16">
+        <v>7.9102200915232082E-3</v>
+      </c>
+      <c r="E33" s="16">
+        <v>4.6259842519685039E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <f>B33+1</f>
+        <v>2046</v>
+      </c>
+      <c r="C34" s="16">
+        <v>1.0318493616525136E-2</v>
+      </c>
+      <c r="D34" s="16">
+        <v>7.848139580135343E-3</v>
+      </c>
+      <c r="E34" s="16">
+        <v>4.604683060644656E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <f t="shared" ref="B35:B39" si="3">B34+1</f>
+        <v>2047</v>
+      </c>
+      <c r="C35" s="16">
+        <v>1.0213109709186029E-2</v>
+      </c>
+      <c r="D35" s="16">
+        <v>7.7870259138493221E-3</v>
+      </c>
+      <c r="E35" s="16">
+        <v>4.5835771406280475E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <f t="shared" si="3"/>
+        <v>2048</v>
+      </c>
+      <c r="C36" s="16">
+        <v>1.0109856634236429E-2</v>
+      </c>
+      <c r="D36" s="16">
+        <v>7.7268566806445432E-3</v>
+      </c>
+      <c r="E36" s="16">
+        <v>4.5626638190466948E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <f t="shared" si="3"/>
+        <v>2049</v>
+      </c>
+      <c r="C37" s="16">
+        <v>1.0008670411279074E-2</v>
+      </c>
+      <c r="D37" s="16">
+        <v>7.6676101558869501E-3</v>
+      </c>
+      <c r="E37" s="16">
+        <v>4.5419404715887129E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <f t="shared" si="3"/>
+        <v>2050</v>
+      </c>
+      <c r="C38" s="16">
+        <v>9.9094895959690212E-3</v>
+      </c>
+      <c r="D38" s="16">
+        <v>7.6092652761765014E-3</v>
+      </c>
+      <c r="E38" s="16">
+        <v>4.5214045214045217E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <f t="shared" si="3"/>
+        <v>2051</v>
+      </c>
+      <c r="C39" s="16">
+        <v>9.8122551555916912E-3</v>
+      </c>
+      <c r="D39" s="16">
+        <v>7.5518016143796291E-3</v>
+      </c>
+      <c r="E39" s="16">
+        <v>4.50105343803869E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <f>B39+1</f>
+        <v>2052</v>
+      </c>
+      <c r="C40" s="16">
+        <v>9.7169103518948887E-3</v>
+      </c>
+      <c r="D40" s="16">
+        <v>7.4951993557845183E-3</v>
+      </c>
+      <c r="E40" s="16">
+        <v>4.4808847363905042E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <f t="shared" ref="B41:B44" si="4">B40+1</f>
+        <v>2053</v>
+      </c>
+      <c r="C41" s="16">
+        <v>9.6234006306861429E-3</v>
+      </c>
+      <c r="D41" s="16">
+        <v>7.4394392753207358E-3</v>
+      </c>
+      <c r="E41" s="16">
+        <v>4.4608959757023534E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <f t="shared" si="4"/>
+        <v>2054</v>
+      </c>
+      <c r="C42" s="16">
+        <v>9.531673517743991E-3</v>
+      </c>
+      <c r="D42" s="16">
+        <v>7.3845027157881885E-3</v>
+      </c>
+      <c r="E42" s="16">
+        <v>4.4410847585750731E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <f t="shared" si="4"/>
+        <v>2055</v>
+      </c>
+      <c r="C43" s="16">
+        <v>9.4416785206258898E-3</v>
+      </c>
+      <c r="D43" s="16">
+        <v>7.3303715670436191E-3</v>
+      </c>
+      <c r="E43" s="16">
+        <v>4.4214487300094077E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <f t="shared" si="4"/>
+        <v>2056</v>
+      </c>
+      <c r="C44" s="16">
+        <v>9.3533670359866837E-3</v>
+      </c>
+      <c r="D44" s="16">
+        <v>7.2770282460958647E-3</v>
+      </c>
+      <c r="E44" s="16">
+        <v>4.401985576472792E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <f>B44+1</f>
+        <v>2057</v>
+      </c>
+      <c r="C45" s="16">
+        <v>9.2666922620501906E-3</v>
+      </c>
+      <c r="D45" s="16">
+        <v>7.2244556780639256E-3</v>
+      </c>
+      <c r="E45" s="16">
+        <v>4.3826930249906753E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <f>B45+1</f>
+        <v>2058</v>
+      </c>
+      <c r="C46" s="16">
+        <v>9.1816091159026853E-3</v>
+      </c>
+      <c r="D46" s="16">
+        <v>7.1726372779545144E-3</v>
+      </c>
+      <c r="E46" s="16">
+        <v>4.3635688422616285E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <f>B46+1</f>
+        <v>2059</v>
+      </c>
+      <c r="C47" s="16">
+        <v>9.0980741553012123E-3</v>
+      </c>
+      <c r="D47" s="16">
+        <v>7.1215569332182373E-3</v>
+      </c>
+      <c r="E47" s="16">
+        <v>4.3446108337955262E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <f>B47+1</f>
+        <v>2060</v>
+      </c>
+      <c r="C48" s="16">
+        <v>9.0160455047117744E-3</v>
+      </c>
+      <c r="D48" s="16">
+        <v>7.0711989870458755E-3</v>
+      </c>
+      <c r="E48" s="16">
+        <v>4.3258168430740911E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="4">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="5">
+        <v>11843.319917818244</v>
+      </c>
+      <c r="D2" s="5">
+        <v>11899.584311285807</v>
+      </c>
+      <c r="E2" s="5">
+        <v>11958.76435148346</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1226.2573442909008</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1232.0829595905325</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1238.2104609525973</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <f>B2+1</f>
+        <v>2016</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12023</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12023</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12023</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="1">
+        <f>G2+1</f>
+        <v>2016</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1244.86142</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1244.86142</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1244.86142</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:B20" si="0">B3+1</f>
+        <v>2017</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12202.680082181758</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12146.415688714193</v>
+      </c>
+      <c r="E4" s="2">
+        <v>12087.23564851654</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G20" si="1">G3+1</f>
+        <v>2017</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1263.4654957090991</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1257.6398804094674</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1251.5123790474024</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12382.360164363514</v>
+      </c>
+      <c r="D5" s="2">
+        <v>12269.831377428385</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12151.471297033078</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1282.0695714181982</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1270.4183408189349</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1258.1633380948049</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12562.04024654527</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12393.24706614258</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12215.706945549618</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1300.673647127297</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1283.1968012284026</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1264.8142971422074</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12741.720328727028</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12516.662754856772</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12279.942594066157</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1319.2777228363964</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1295.9752616378701</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1271.4652561896098</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12921.400410908785</v>
+      </c>
+      <c r="D8" s="2">
+        <v>12640.078443570965</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12344.178242582695</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1337.8817985454955</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1308.7537220473375</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1278.1162152370121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="C9" s="2">
+        <v>13101.080493090543</v>
+      </c>
+      <c r="D9" s="2">
+        <v>12763.494132285157</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12408.413891099233</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1356.4858742545948</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1321.532182456805</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1284.7671742844145</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13280.760575272299</v>
+      </c>
+      <c r="D10" s="2">
+        <v>12886.909820999348</v>
+      </c>
+      <c r="E10" s="2">
+        <v>12472.649539615772</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1375.0899499636937</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1334.3106428662725</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1291.418133331817</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="C11" s="2">
+        <v>13460.440657454055</v>
+      </c>
+      <c r="D11" s="2">
+        <v>13010.325509713541</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12536.885188132312</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1393.6940256727928</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1347.0891032757399</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1298.0690923792195</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="C12" s="2">
+        <v>13640.120739635813</v>
+      </c>
+      <c r="D12" s="2">
+        <v>13133.741198427733</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12601.120836648852</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1412.2981013818919</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1359.8675636852074</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1304.7200514266219</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13819.800821817569</v>
+      </c>
+      <c r="D13" s="2">
+        <v>13257.156887141928</v>
+      </c>
+      <c r="E13" s="2">
+        <v>12665.356485165392</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1430.902177090991</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1372.6460240946751</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1311.3710104740246</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13999.480903999325</v>
+      </c>
+      <c r="D14" s="2">
+        <v>13380.57257585612</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12729.59213368193</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1449.5062528000901</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1385.4244845041426</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1318.0219695214269</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14179.160986181081</v>
+      </c>
+      <c r="D15" s="2">
+        <v>13503.988264570315</v>
+      </c>
+      <c r="E15" s="2">
+        <v>12793.827782198468</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1468.110328509189</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1398.2029449136103</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1324.6729285688293</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14358.841068362839</v>
+      </c>
+      <c r="D16" s="2">
+        <v>13627.403953284507</v>
+      </c>
+      <c r="E16" s="2">
+        <v>12858.063430715009</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>2029</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1486.7144042182883</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1410.9814053230778</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1331.3238876162318</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="C17" s="2">
+        <v>14538.521150544595</v>
+      </c>
+      <c r="D17" s="2">
+        <v>13750.819641998702</v>
+      </c>
+      <c r="E17" s="2">
+        <v>12922.299079231549</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>2030</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1505.3184799273872</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1423.7598657325454</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1337.9748466636345</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="C18" s="2">
+        <v>14718.201232726351</v>
+      </c>
+      <c r="D18" s="2">
+        <v>13874.235330712894</v>
+      </c>
+      <c r="E18" s="2">
+        <v>12986.534727748087</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>2031</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1523.9225556364863</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1436.5383261420129</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1344.6258057110367</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="C19" s="2">
+        <v>14897.881314908107</v>
+      </c>
+      <c r="D19" s="2">
+        <v>13997.651019427089</v>
+      </c>
+      <c r="E19" s="2">
+        <v>13050.770376264627</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>2032</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1542.5266313455852</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1449.3167865514806</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1351.2767647584394</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="C20" s="2">
+        <v>15077.561397089865</v>
+      </c>
+      <c r="D20" s="2">
+        <v>14121.066708141281</v>
+      </c>
+      <c r="E20" s="2">
+        <v>13115.006024781167</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>2033</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1561.1307070546845</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1462.0952469609481</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1357.9277238058419</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <f>B20+1</f>
+        <v>2034</v>
+      </c>
+      <c r="C21" s="2">
+        <v>15257.241479271621</v>
+      </c>
+      <c r="D21" s="2">
+        <v>14244.482396855472</v>
+      </c>
+      <c r="E21" s="2">
+        <v>13179.241673297707</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="1">
+        <f>G20+1</f>
+        <v>2034</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1579.7347827637834</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1474.8737073704156</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1364.5786828532446</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <f>B21+1</f>
+        <v>2035</v>
+      </c>
+      <c r="C22" s="2">
+        <v>15436.921561453377</v>
+      </c>
+      <c r="D22" s="2">
+        <v>14367.898085569666</v>
+      </c>
+      <c r="E22" s="2">
+        <v>13243.477321814247</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="1">
+        <f>G21+1</f>
+        <v>2035</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1598.3388584728825</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1487.6521677798833</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1371.229641900647</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <f t="shared" ref="B23:B27" si="2">B22+1</f>
+        <v>2036</v>
+      </c>
+      <c r="C23" s="2">
+        <v>15616.601643635135</v>
+      </c>
+      <c r="D23" s="2">
+        <v>14491.313774283859</v>
+      </c>
+      <c r="E23" s="2">
+        <v>13307.712970330787</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="1">
+        <f t="shared" ref="G23:G27" si="3">G22+1</f>
+        <v>2036</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1616.9429341819816</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1500.4306281893507</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1377.8806009480497</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <f t="shared" si="2"/>
+        <v>2037</v>
+      </c>
+      <c r="C24" s="2">
+        <v>15796.281725816891</v>
+      </c>
+      <c r="D24" s="2">
+        <v>14614.729462998052</v>
+      </c>
+      <c r="E24" s="2">
+        <v>13371.948618847327</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="1">
+        <f t="shared" si="3"/>
+        <v>2037</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1635.5470098910807</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1513.2090885988182</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1384.5315599954522</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <f t="shared" si="2"/>
+        <v>2038</v>
+      </c>
+      <c r="C25" s="2">
+        <v>15975.961807998649</v>
+      </c>
+      <c r="D25" s="2">
+        <v>14738.145151712242</v>
+      </c>
+      <c r="E25" s="2">
+        <v>13436.184267363868</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>2038</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1654.1510856001801</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1525.9875490082854</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1391.1825190428547</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <f t="shared" si="2"/>
+        <v>2039</v>
+      </c>
+      <c r="C26" s="2">
+        <v>16155.641890180405</v>
+      </c>
+      <c r="D26" s="2">
+        <v>14861.560840426435</v>
+      </c>
+      <c r="E26" s="2">
+        <v>13500.419915880406</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="1">
+        <f t="shared" si="3"/>
+        <v>2039</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1672.7551613092789</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1538.7660094177529</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1397.8334780902571</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <f t="shared" si="2"/>
+        <v>2040</v>
+      </c>
+      <c r="C27" s="2">
+        <v>16335.321972362161</v>
+      </c>
+      <c r="D27" s="2">
+        <v>14984.976529140627</v>
+      </c>
+      <c r="E27" s="2">
+        <v>13564.655564396946</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="1">
+        <f t="shared" si="3"/>
+        <v>2040</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1691.3592370183781</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1551.5444698272204</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1404.4844371376596</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <f>B27+1</f>
+        <v>2041</v>
+      </c>
+      <c r="C28" s="2">
+        <v>16515.002054543915</v>
+      </c>
+      <c r="D28" s="2">
+        <v>15108.392217854818</v>
+      </c>
+      <c r="E28" s="2">
+        <v>13628.891212913486</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="1">
+        <f>G27+1</f>
+        <v>2041</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1709.9633127274767</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1564.3229302366879</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1411.1353961850623</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <f t="shared" ref="B29:B32" si="4">B28+1</f>
+        <v>2042</v>
+      </c>
+      <c r="C29" s="2">
+        <v>16694.682136725674</v>
+      </c>
+      <c r="D29" s="2">
+        <v>15231.807906569011</v>
+      </c>
+      <c r="E29" s="2">
+        <v>13693.126861430024</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="1">
+        <f t="shared" ref="G29:G32" si="5">G28+1</f>
+        <v>2042</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1728.5673884365763</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1577.1013906461553</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1417.7863552324645</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <f t="shared" si="4"/>
+        <v>2043</v>
+      </c>
+      <c r="C30" s="2">
+        <v>16874.36221890743</v>
+      </c>
+      <c r="D30" s="2">
+        <v>15355.223595283205</v>
+      </c>
+      <c r="E30" s="2">
+        <v>13757.362509946563</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="1">
+        <f t="shared" si="5"/>
+        <v>2043</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1747.1714641456751</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1589.879851055623</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1424.437314279867</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <f t="shared" si="4"/>
+        <v>2044</v>
+      </c>
+      <c r="C31" s="2">
+        <v>17054.042301089186</v>
+      </c>
+      <c r="D31" s="2">
+        <v>15478.639283997396</v>
+      </c>
+      <c r="E31" s="2">
+        <v>13821.598158463101</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="1">
+        <f t="shared" si="5"/>
+        <v>2044</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1765.7755398547743</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1602.6583114650903</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1431.0882733272695</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <f t="shared" si="4"/>
+        <v>2045</v>
+      </c>
+      <c r="C32" s="2">
+        <v>17233.722383270942</v>
+      </c>
+      <c r="D32" s="2">
+        <v>15602.054972711589</v>
+      </c>
+      <c r="E32" s="2">
+        <v>13885.833806979641</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="1">
+        <f t="shared" si="5"/>
+        <v>2045</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1784.3796155638734</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1615.4367718745577</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1437.7392323746719</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <f>B32+1</f>
+        <v>2046</v>
+      </c>
+      <c r="C33" s="2">
+        <v>17413.402465452702</v>
+      </c>
+      <c r="D33" s="2">
+        <v>15725.470661425783</v>
+      </c>
+      <c r="E33" s="2">
+        <v>13950.069455496181</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="1">
+        <f>G32+1</f>
+        <v>2046</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1802.9836912729727</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1628.2152322840254</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1444.3901914220744</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <f t="shared" ref="B34:B38" si="6">B33+1</f>
+        <v>2047</v>
+      </c>
+      <c r="C34" s="2">
+        <v>17593.082547634458</v>
+      </c>
+      <c r="D34" s="2">
+        <v>15848.886350139976</v>
+      </c>
+      <c r="E34" s="2">
+        <v>14014.305104012723</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="1">
+        <f t="shared" ref="G34:G38" si="7">G33+1</f>
+        <v>2047</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1821.5877669820716</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1640.9936926934929</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1451.0411504694773</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <f t="shared" si="6"/>
+        <v>2048</v>
+      </c>
+      <c r="C35" s="2">
+        <v>17772.762629816214</v>
+      </c>
+      <c r="D35" s="2">
+        <v>15972.302038854168</v>
+      </c>
+      <c r="E35" s="2">
+        <v>14078.540752529261</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="1">
+        <f t="shared" si="7"/>
+        <v>2048</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1840.1918426911707</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1653.7721531029604</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1457.6921095168796</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <f t="shared" si="6"/>
+        <v>2049</v>
+      </c>
+      <c r="C36" s="2">
+        <v>17952.44271199797</v>
+      </c>
+      <c r="D36" s="2">
+        <v>16095.717727568361</v>
+      </c>
+      <c r="E36" s="2">
+        <v>14142.776401045803</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="1">
+        <f t="shared" si="7"/>
+        <v>2049</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1858.7959184002698</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1666.5506135124281</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1464.3430685642822</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <f t="shared" si="6"/>
+        <v>2050</v>
+      </c>
+      <c r="C37" s="2">
+        <v>18132.12279417973</v>
+      </c>
+      <c r="D37" s="2">
+        <v>16219.133416282555</v>
+      </c>
+      <c r="E37" s="2">
+        <v>14207.012049562343</v>
+      </c>
+      <c r="F37" s="20"/>
+      <c r="G37" s="1">
+        <f t="shared" si="7"/>
+        <v>2050</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1877.3999941093691</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1679.3290739218955</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1470.9940276116849</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <f t="shared" si="6"/>
+        <v>2051</v>
+      </c>
+      <c r="C38" s="2">
+        <v>18311.802876361486</v>
+      </c>
+      <c r="D38" s="2">
+        <v>16342.54910499675</v>
+      </c>
+      <c r="E38" s="2">
+        <v>14271.247698078883</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="1">
+        <f t="shared" si="7"/>
+        <v>2051</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1896.004069818468</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1692.1075343313632</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1477.6449866590874</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <f>B38+1</f>
+        <v>2052</v>
+      </c>
+      <c r="C39" s="2">
+        <v>18491.482958543242</v>
+      </c>
+      <c r="D39" s="2">
+        <v>16465.964793710944</v>
+      </c>
+      <c r="E39" s="2">
+        <v>14335.483346595423</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="1">
+        <f>G38+1</f>
+        <v>2052</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1914.6081455275671</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1704.8859947408309</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1484.2959457064901</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <f t="shared" ref="B40:B43" si="8">B39+1</f>
+        <v>2053</v>
+      </c>
+      <c r="C40" s="2">
+        <v>18671.163040724998</v>
+      </c>
+      <c r="D40" s="2">
+        <v>16589.380482425138</v>
+      </c>
+      <c r="E40" s="2">
+        <v>14399.718995111962</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="G40" s="1">
+        <f t="shared" ref="G40:G43" si="9">G39+1</f>
+        <v>2053</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1933.2122212366662</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1717.6644551502986</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1490.9469047538923</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <f t="shared" si="8"/>
+        <v>2054</v>
+      </c>
+      <c r="C41" s="2">
+        <v>18850.843122906754</v>
+      </c>
+      <c r="D41" s="2">
+        <v>16712.796171139333</v>
+      </c>
+      <c r="E41" s="2">
+        <v>14463.954643628502</v>
+      </c>
+      <c r="F41" s="20"/>
+      <c r="G41" s="1">
+        <f t="shared" si="9"/>
+        <v>2054</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1951.8162969457651</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1730.4429155597663</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1497.597863801295</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <f t="shared" si="8"/>
+        <v>2055</v>
+      </c>
+      <c r="C42" s="2">
+        <v>19030.52320508851</v>
+      </c>
+      <c r="D42" s="2">
+        <v>16836.211859853523</v>
+      </c>
+      <c r="E42" s="2">
+        <v>14528.19029214504</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="1">
+        <f t="shared" si="9"/>
+        <v>2055</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1970.4203726548642</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1743.2213759692338</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1504.2488228486973</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <f t="shared" si="8"/>
+        <v>2056</v>
+      </c>
+      <c r="C43" s="2">
+        <v>19210.203287270266</v>
+      </c>
+      <c r="D43" s="2">
+        <v>16959.627548567718</v>
+      </c>
+      <c r="E43" s="2">
+        <v>14592.42594066158</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="1">
+        <f t="shared" si="9"/>
+        <v>2056</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1989.0244483639631</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1755.9998363787015</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1510.8997818961</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <f>B43+1</f>
+        <v>2057</v>
+      </c>
+      <c r="C44" s="2">
+        <v>19389.883369452022</v>
+      </c>
+      <c r="D44" s="2">
+        <v>17083.043237281912</v>
+      </c>
+      <c r="E44" s="2">
+        <v>14656.661589178118</v>
+      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="1">
+        <f>G43+1</f>
+        <v>2057</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2007.6285240730622</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1768.778296788169</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1517.5507409435022</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <f>B44+1</f>
+        <v>2058</v>
+      </c>
+      <c r="C45" s="2">
+        <v>19569.563451633778</v>
+      </c>
+      <c r="D45" s="2">
+        <v>17206.458925996103</v>
+      </c>
+      <c r="E45" s="2">
+        <v>14720.897237694657</v>
+      </c>
+      <c r="F45" s="20"/>
+      <c r="G45" s="1">
+        <f>G44+1</f>
+        <v>2058</v>
+      </c>
+      <c r="H45" s="2">
+        <v>2026.2325997821613</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1781.5567571976364</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1524.2016999909047</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <f>B45+1</f>
+        <v>2059</v>
+      </c>
+      <c r="C46" s="2">
+        <v>19749.243533815534</v>
+      </c>
+      <c r="D46" s="2">
+        <v>17329.874614710297</v>
+      </c>
+      <c r="E46" s="2">
+        <v>14785.132886211197</v>
+      </c>
+      <c r="F46" s="20"/>
+      <c r="G46" s="1">
+        <f>G45+1</f>
+        <v>2059</v>
+      </c>
+      <c r="H46" s="2">
+        <v>2044.8366754912602</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1794.3352176071041</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1530.8526590383071</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <f>B46+1</f>
+        <v>2060</v>
+      </c>
+      <c r="C47" s="2">
+        <v>19928.923615997293</v>
+      </c>
+      <c r="D47" s="2">
+        <v>17453.290303424488</v>
+      </c>
+      <c r="E47" s="2">
+        <v>14849.368534727735</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="1">
+        <f>G46+1</f>
+        <v>2060</v>
+      </c>
+      <c r="H47" s="2">
+        <v>2063.4407512003595</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1807.1136780165714</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1537.5036180857096</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/09-Excell/Szenarien Bev.wachstum - j. Zuwachs konstant.xlsx
+++ b/09-Excell/Szenarien Bev.wachstum - j. Zuwachs konstant.xlsx
@@ -854,11 +854,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="616708856"/>
-        <c:axId val="616708464"/>
+        <c:axId val="439290360"/>
+        <c:axId val="439294672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="616708856"/>
+        <c:axId val="439290360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,7 +901,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616708464"/>
+        <c:crossAx val="439294672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -909,7 +909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="616708464"/>
+        <c:axId val="439294672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,7 +960,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616708856"/>
+        <c:crossAx val="439290360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -974,7 +974,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1551,11 +1550,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="616717088"/>
-        <c:axId val="616711600"/>
+        <c:axId val="439293496"/>
+        <c:axId val="439296240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="616717088"/>
+        <c:axId val="439293496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +1597,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616711600"/>
+        <c:crossAx val="439296240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1606,7 +1605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="616711600"/>
+        <c:axId val="439296240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +1656,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616717088"/>
+        <c:crossAx val="439293496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1671,7 +1670,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2248,11 +2246,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="616715128"/>
-        <c:axId val="616718264"/>
+        <c:axId val="439290752"/>
+        <c:axId val="439294280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="616715128"/>
+        <c:axId val="439290752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +2293,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616718264"/>
+        <c:crossAx val="439294280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2303,7 +2301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="616718264"/>
+        <c:axId val="439294280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2354,7 +2352,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616715128"/>
+        <c:crossAx val="439290752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2368,7 +2366,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2855,11 +2852,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="616712776"/>
-        <c:axId val="616706896"/>
+        <c:axId val="439289184"/>
+        <c:axId val="439295064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="616712776"/>
+        <c:axId val="439289184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2902,7 +2899,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616706896"/>
+        <c:crossAx val="439295064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2910,7 +2907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="616706896"/>
+        <c:axId val="439295064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.7000000000000005E-2"/>
@@ -2963,7 +2960,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616712776"/>
+        <c:crossAx val="439289184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3425,11 +3422,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="616708072"/>
-        <c:axId val="616709248"/>
+        <c:axId val="439292712"/>
+        <c:axId val="439289968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="616708072"/>
+        <c:axId val="439292712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3472,7 +3469,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616709248"/>
+        <c:crossAx val="439289968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3480,7 +3477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="616709248"/>
+        <c:axId val="439289968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22500"/>
@@ -3533,7 +3530,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616708072"/>
+        <c:crossAx val="439292712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3998,11 +3995,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="616709640"/>
-        <c:axId val="616710816"/>
+        <c:axId val="440659216"/>
+        <c:axId val="440655296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="616709640"/>
+        <c:axId val="440659216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4045,7 +4042,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616710816"/>
+        <c:crossAx val="440655296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4053,7 +4050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="616710816"/>
+        <c:axId val="440655296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2100"/>
@@ -4106,7 +4103,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616709640"/>
+        <c:crossAx val="440659216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200"/>
@@ -17306,27 +17303,9 @@
       <sheetName val="Tabelle1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="9">
-          <cell r="F9">
-            <v>7</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="9">
-          <cell r="F9">
-            <v>16</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="9">
-          <cell r="F9">
-            <v>25</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="B2">
